--- a/artfynd/A 6965-2026 artfynd.xlsx
+++ b/artfynd/A 6965-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>114565031</v>
+        <v>108951146</v>
       </c>
       <c r="B2" t="n">
-        <v>78507</v>
+        <v>89412</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,40 +696,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Horndal-Fallviken, Dlr</t>
+          <t>Stora Mörtsjön, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>565454</v>
+        <v>565429.1409946628</v>
       </c>
       <c r="R2" t="n">
-        <v>6746042</v>
+        <v>6746061.659947474</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +760,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,7 +770,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:14</t>
+          <t>15:12</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -777,22 +779,258 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Ward Tamsyn</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Ward Tamsyn</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>114565031</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78507</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Horndal-Fallviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>565454</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6746042</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Svärdsjö</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>13:14</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
           <t>Mårten Nilsson</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>Ward Tamsyn</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>114571384</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90352</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Horndal-Fallviken, Dlr</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>565455</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6746088</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Falun</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Svärdsjö</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-05-10</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Mårten Nilsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Ward Tamsyn</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
